--- a/MCNP Example Runs/Ex3-4/Ex3-4.xlsx
+++ b/MCNP Example Runs/Ex3-4/Ex3-4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14388" windowHeight="3960" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14388" windowHeight="3960" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="6" r:id="rId1"/>
@@ -1428,9 +1428,6 @@
     <t>$ U Reflector top</t>
   </si>
   <si>
-    <t>$ 1 point source @ (3.5,0,0)</t>
-  </si>
-  <si>
     <t>Side View</t>
   </si>
   <si>
@@ -1639,6 +1636,9 @@
   </si>
   <si>
     <t>Description: Material 2 - Al Case</t>
+  </si>
+  <si>
+    <t>$ 1 point source @ (0,0,50)</t>
   </si>
 </sst>
 </file>
@@ -1649,7 +1649,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000E+00"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.000000"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -1835,7 +1835,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -2834,7 +2834,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -2978,10 +2978,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>334</v>
+      </c>
+      <c r="G4" t="s">
         <v>335</v>
-      </c>
-      <c r="G4" t="s">
-        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -3033,28 +3033,28 @@
         <v>113</v>
       </c>
       <c r="D10" t="s">
+        <v>336</v>
+      </c>
+      <c r="E10" t="s">
         <v>337</v>
-      </c>
-      <c r="E10" t="s">
-        <v>338</v>
       </c>
       <c r="F10" t="s">
         <v>95</v>
       </c>
       <c r="G10" t="s">
+        <v>338</v>
+      </c>
+      <c r="H10" t="s">
         <v>339</v>
-      </c>
-      <c r="H10" t="s">
-        <v>340</v>
       </c>
       <c r="I10" t="s">
         <v>140</v>
       </c>
       <c r="J10" t="s">
+        <v>340</v>
+      </c>
+      <c r="K10" t="s">
         <v>341</v>
-      </c>
-      <c r="K10" t="s">
-        <v>342</v>
       </c>
       <c r="L10" t="s">
         <v>114</v>
@@ -3871,7 +3871,7 @@
         <v>133</v>
       </c>
       <c r="P45" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Q45">
         <v>0.98521000000000003</v>
@@ -3880,7 +3880,7 @@
         <v>133</v>
       </c>
       <c r="S45" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="T45" t="s">
         <v>136</v>
@@ -5650,10 +5650,10 @@
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="N111" t="s">
+        <v>344</v>
+      </c>
+      <c r="O111" t="s">
         <v>345</v>
-      </c>
-      <c r="O111" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="112" spans="1:22">
@@ -5694,10 +5694,10 @@
         <v>7.3999999999999999E-4</v>
       </c>
       <c r="N112" t="s">
+        <v>346</v>
+      </c>
+      <c r="O112" t="s">
         <v>347</v>
-      </c>
-      <c r="O112" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="113" spans="2:15">
@@ -5738,10 +5738,10 @@
         <v>7.6999999999999996E-4</v>
       </c>
       <c r="N113" t="s">
+        <v>348</v>
+      </c>
+      <c r="O113" t="s">
         <v>349</v>
-      </c>
-      <c r="O113" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="114" spans="2:15">
@@ -5782,10 +5782,10 @@
         <v>7.3999999999999999E-4</v>
       </c>
       <c r="N114" t="s">
+        <v>350</v>
+      </c>
+      <c r="O114" t="s">
         <v>351</v>
-      </c>
-      <c r="O114" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="115" spans="2:15">
@@ -5826,10 +5826,10 @@
         <v>8.5999999999999998E-4</v>
       </c>
       <c r="N115" t="s">
+        <v>352</v>
+      </c>
+      <c r="O115" t="s">
         <v>353</v>
-      </c>
-      <c r="O115" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="116" spans="2:15">
@@ -5870,10 +5870,10 @@
         <v>8.5999999999999998E-4</v>
       </c>
       <c r="N116" t="s">
+        <v>354</v>
+      </c>
+      <c r="O116" t="s">
         <v>355</v>
-      </c>
-      <c r="O116" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="117" spans="2:15">
@@ -5914,10 +5914,10 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="N117" t="s">
+        <v>356</v>
+      </c>
+      <c r="O117" t="s">
         <v>357</v>
-      </c>
-      <c r="O117" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="118" spans="2:15">
@@ -5958,10 +5958,10 @@
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="N118" t="s">
+        <v>358</v>
+      </c>
+      <c r="O118" t="s">
         <v>359</v>
-      </c>
-      <c r="O118" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="119" spans="2:15">
@@ -6002,10 +6002,10 @@
         <v>6.7000000000000002E-4</v>
       </c>
       <c r="N119" t="s">
+        <v>360</v>
+      </c>
+      <c r="O119" t="s">
         <v>361</v>
-      </c>
-      <c r="O119" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="120" spans="2:15">
@@ -6046,10 +6046,10 @@
         <v>1.3600000000000001E-3</v>
       </c>
       <c r="N120" t="s">
+        <v>362</v>
+      </c>
+      <c r="O120" t="s">
         <v>363</v>
-      </c>
-      <c r="O120" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="121" spans="2:15">
@@ -6108,7 +6108,7 @@
         <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -6289,7 +6289,7 @@
         <v>260</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
@@ -6306,16 +6306,16 @@
         <v>1</v>
       </c>
       <c r="B19" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>368</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>369</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="24" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H19" s="19" t="str">
         <f>A19&amp;" "&amp;C19&amp;" "&amp;D19&amp;" "&amp;E19&amp;" "&amp;F19&amp;" "&amp;G19&amp;" "&amp;B19</f>
@@ -6327,10 +6327,10 @@
         <v>2</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D20" s="19">
         <v>0</v>
@@ -6348,13 +6348,13 @@
         <v>3</v>
       </c>
       <c r="B21" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="D21" s="21" t="s">
         <v>372</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>373</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
@@ -6369,7 +6369,7 @@
         <v>260</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G22" s="23"/>
       <c r="H22" s="19" t="str">
@@ -6382,10 +6382,10 @@
         <v>4</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G23" s="25">
         <f>G19+0.1587</f>
@@ -6404,7 +6404,7 @@
         <v>332</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D24">
         <v>-0.15870000000000001</v>
@@ -6423,10 +6423,10 @@
         <v>333</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G25" s="23"/>
       <c r="H25" s="19" t="str">
@@ -6518,7 +6518,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -6527,7 +6527,7 @@
         <v>9.6586000000000005E-2</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G21" t="s">
         <v>108</v>
@@ -6542,7 +6542,7 @@
         <v>260</v>
       </c>
       <c r="B22" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D22" s="23"/>
       <c r="E22" s="13"/>
@@ -6556,13 +6556,13 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G23" t="s">
         <v>108</v>
@@ -6577,7 +6577,7 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -6586,7 +6586,7 @@
         <v>-2.7</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G24" t="s">
         <v>108</v>
@@ -6621,7 +6621,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G26" t="s">
         <v>109</v>
@@ -6702,7 +6702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -6809,8 +6809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="F19" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6914,20 +6914,20 @@
         <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>334</v>
+        <v>404</v>
       </c>
       <c r="C27">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I27" t="str">
         <f>A27&amp;" "&amp;C27&amp;" "&amp;D27&amp;" "&amp;E27&amp;" "&amp;B27</f>
-        <v>ksrc 3.5 0 0 $ 1 point source @ (3.5,0,0)</v>
+        <v>ksrc 0 0 50 $ 1 point source @ (0,0,50)</v>
       </c>
     </row>
   </sheetData>
@@ -6944,7 +6944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E11" sqref="E11:E13"/>
     </sheetView>
   </sheetViews>
@@ -7005,7 +7005,7 @@
         <v>m1</v>
       </c>
       <c r="B11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -7021,7 +7021,7 @@
         <v>m2</v>
       </c>
       <c r="B12" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" ref="E12:E13" si="0">A12&amp;" "&amp;B34&amp;" "&amp;D12&amp;" "&amp;B12</f>
@@ -7034,7 +7034,7 @@
         <v>mt1</v>
       </c>
       <c r="B13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
@@ -7046,7 +7046,7 @@
         <v>90</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -7080,16 +7080,16 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E18" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F18" t="str">
         <f>C18&amp;D18&amp;$F$16</f>
@@ -7108,16 +7108,16 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C19">
         <v>8</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E19" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F19" t="str">
         <f>C19&amp;D19&amp;$F$16</f>
@@ -7136,16 +7136,16 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C20">
         <v>9</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E20" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F20" t="str">
         <f>C20&amp;D20&amp;$F$16</f>
@@ -7224,7 +7224,7 @@
         <v>327</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -7258,16 +7258,16 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C26">
         <v>13</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E26" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F26" t="str">
         <f>C26&amp;D26&amp;$F$16</f>
@@ -7283,10 +7283,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -7320,11 +7320,11 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D30" s="14"/>
       <c r="E30" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F30" t="str">
         <f>C30&amp;D30&amp;$F$16</f>
@@ -7332,7 +7332,7 @@
       </c>
       <c r="G30" s="10"/>
       <c r="H30" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="32" spans="1:8">

--- a/MCNP Example Runs/Ex3-4/Ex3-4.xlsx
+++ b/MCNP Example Runs/Ex3-4/Ex3-4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14388" windowHeight="3960" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14388" windowHeight="3960" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="6" r:id="rId1"/>
@@ -2421,19 +2421,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>220837</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>179071</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>601981</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>43891</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2446,8 +2446,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="731521"/>
-          <a:ext cx="3421237" cy="3470910"/>
+          <a:off x="1" y="914400"/>
+          <a:ext cx="2522220" cy="2421331"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2459,19 +2459,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>19572</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>422253</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>175521</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="5" name="Picture 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2484,8 +2484,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3860052" y="739140"/>
-          <a:ext cx="3603081" cy="3459480"/>
+          <a:off x="3840481" y="914400"/>
+          <a:ext cx="2491739" cy="2370081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2960,8 +2960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6702,7 +6702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -6809,7 +6809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
@@ -6944,8 +6944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E13"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7025,7 +7025,7 @@
       </c>
       <c r="E12" t="str">
         <f t="shared" ref="E12:E13" si="0">A12&amp;" "&amp;B34&amp;" "&amp;D12&amp;" "&amp;B12</f>
-        <v>m2 13027.62c 1  $ Al Case</v>
+        <v>m2 13027.62c   $ Al Case</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -7273,12 +7273,10 @@
         <f>C26&amp;D26&amp;$F$16</f>
         <v>13027</v>
       </c>
-      <c r="G26" s="10">
-        <v>1</v>
-      </c>
+      <c r="G26" s="10"/>
       <c r="H26" t="str">
         <f>F26&amp;E26&amp;" "&amp;G26</f>
-        <v>13027.62c 1</v>
+        <v xml:space="preserve">13027.62c </v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -7363,7 +7361,7 @@
       </c>
       <c r="B34" t="str">
         <f>H26</f>
-        <v>13027.62c 1</v>
+        <v xml:space="preserve">13027.62c </v>
       </c>
     </row>
     <row r="35" spans="1:2">
